--- a/notebooks/FGD1/input/FGD1_AAS_individuals.xlsx
+++ b/notebooks/FGD1/input/FGD1_AAS_individuals.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/FGD1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5330D7-E4A3-E74F-9B61-D16443FC4E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA9C9A7-11BF-E942-9CA2-C549666C59CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="1440" windowWidth="34720" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9200" yWindow="4140" windowWidth="59260" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="379">
   <si>
     <t>PMID</t>
   </si>
@@ -608,13 +621,562 @@
   </si>
   <si>
     <t>index case</t>
+  </si>
+  <si>
+    <t>PMID:38411716</t>
+  </si>
+  <si>
+    <t>FGD1-related Aarskog-Scott syndrome: Identification of four novel variations and a literature review of clinical and molecular aspects</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>c.2016-1G&gt;A</t>
+  </si>
+  <si>
+    <t>c.1829G&gt;T</t>
+  </si>
+  <si>
+    <t>c.1345C&gt;T</t>
+  </si>
+  <si>
+    <t>c.2580+1G&gt;A</t>
+  </si>
+  <si>
+    <t>R610L</t>
+  </si>
+  <si>
+    <t>R449C</t>
+  </si>
+  <si>
+    <t>P4Y</t>
+  </si>
+  <si>
+    <t>P10Y</t>
+  </si>
+  <si>
+    <t>P5Y</t>
+  </si>
+  <si>
+    <t>P8Y</t>
+  </si>
+  <si>
+    <t>Pes planus</t>
+  </si>
+  <si>
+    <t>HP:0001763</t>
+  </si>
+  <si>
+    <t>Intellectual disability, mild</t>
+  </si>
+  <si>
+    <t>HP:0001256</t>
+  </si>
+  <si>
+    <t>Patent ductus arteriosus</t>
+  </si>
+  <si>
+    <t>HP:0001643</t>
+  </si>
+  <si>
+    <t>Patent foramen ovale</t>
+  </si>
+  <si>
+    <t>HP:0001655</t>
+  </si>
+  <si>
+    <t>Atrial septal defect</t>
+  </si>
+  <si>
+    <t>HP:0001631</t>
+  </si>
+  <si>
+    <t>Severe postnatal growth retardation</t>
+  </si>
+  <si>
+    <t>HP:0008850</t>
+  </si>
+  <si>
+    <t>Abnormal serum insulin-like growth factor 1 level</t>
+  </si>
+  <si>
+    <t>HP:0030352</t>
+  </si>
+  <si>
+    <t>PMID:33067218</t>
+  </si>
+  <si>
+    <t>The First Korean Family with Aarskog-Scott Syndrome Harboring a Novel Mutation in FGD1 Diagnosed via Targeted Gene Panel Sequencing</t>
+  </si>
+  <si>
+    <t>Case Report</t>
+  </si>
+  <si>
+    <t>P2Y7M</t>
+  </si>
+  <si>
+    <t>Moderate postnatal growth retardation</t>
+  </si>
+  <si>
+    <t>HP:0008855</t>
+  </si>
+  <si>
+    <t>Depressed nasal bridge</t>
+  </si>
+  <si>
+    <t>HP:0005280</t>
+  </si>
+  <si>
+    <t>Thin upper lip vermilion</t>
+  </si>
+  <si>
+    <t>HP:0000219</t>
+  </si>
+  <si>
+    <t>Low-set ears</t>
+  </si>
+  <si>
+    <t>HP:0000369</t>
+  </si>
+  <si>
+    <t>Hypoplastic pelvis</t>
+  </si>
+  <si>
+    <t>HP:0008839</t>
+  </si>
+  <si>
+    <t>c.1192-1G&gt;A</t>
+  </si>
+  <si>
+    <t>PMID:28103835</t>
+  </si>
+  <si>
+    <t>A novel, putatively null, FGD1 variant leading to Aarskog-Scott syndrome in a family from UAE</t>
+  </si>
+  <si>
+    <t>proband IV-3</t>
+  </si>
+  <si>
+    <t>Aggressive behavior</t>
+  </si>
+  <si>
+    <t>HP:0000718</t>
+  </si>
+  <si>
+    <t>Broad forehead</t>
+  </si>
+  <si>
+    <t>HP:0000337</t>
+  </si>
+  <si>
+    <t>Blepharophimosis</t>
+  </si>
+  <si>
+    <t>HP:0000581</t>
+  </si>
+  <si>
+    <t>Epicanthus</t>
+  </si>
+  <si>
+    <t>HP:0000286</t>
+  </si>
+  <si>
+    <t>Short columella</t>
+  </si>
+  <si>
+    <t>HP:0002000</t>
+  </si>
+  <si>
+    <t>Eclabion</t>
+  </si>
+  <si>
+    <t>HP:0012472</t>
+  </si>
+  <si>
+    <t>Short philtrum</t>
+  </si>
+  <si>
+    <t>HP:0000322</t>
+  </si>
+  <si>
+    <t>2-3 toe cutaneous syndactyly</t>
+  </si>
+  <si>
+    <t>HP:0005709</t>
+  </si>
+  <si>
+    <t>Sleep abnormality</t>
+  </si>
+  <si>
+    <t>HP:0002360</t>
+  </si>
+  <si>
+    <t>brother IV-5</t>
+  </si>
+  <si>
+    <t>c.53del</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(Pro18ArgfsTer106)</t>
+  </si>
+  <si>
+    <t>Telecanthus</t>
+  </si>
+  <si>
+    <t>HP:0000506</t>
+  </si>
+  <si>
+    <t>Wide intermamillary distance</t>
+  </si>
+  <si>
+    <t>HP:0006610</t>
+  </si>
+  <si>
+    <t>PMID:24770546</t>
+  </si>
+  <si>
+    <t>Aarskog-Scott syndrome: a novel mutation in the FGD1 gene associated with severe craniofacial dysplasia</t>
+  </si>
+  <si>
+    <t>Case report</t>
+  </si>
+  <si>
+    <t>P9Y</t>
+  </si>
+  <si>
+    <t>c.1468C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(Gln490Ter)</t>
+  </si>
+  <si>
+    <t>PMID:26029706</t>
+  </si>
+  <si>
+    <t>Identification of novel mutations in Mexican patients with Aarskog-Scott syndrome</t>
+  </si>
+  <si>
+    <t>Patient 1</t>
+  </si>
+  <si>
+    <t>Patient 4</t>
+  </si>
+  <si>
+    <t>Patient 5</t>
+  </si>
+  <si>
+    <t>Only boy patients included here</t>
+  </si>
+  <si>
+    <t>P6Y</t>
+  </si>
+  <si>
+    <t>P12Y</t>
+  </si>
+  <si>
+    <t>c.1138G&gt;T</t>
+  </si>
+  <si>
+    <t>c.1990C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(Glu380Ter)</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(Gln664Ter)</t>
+  </si>
+  <si>
+    <t>Joint hypermobility</t>
+  </si>
+  <si>
+    <t>HP:0001382</t>
+  </si>
+  <si>
+    <t>Abnormal pinna morphology</t>
+  </si>
+  <si>
+    <t>HP:0000377</t>
+  </si>
+  <si>
+    <t>PMID:36051692</t>
+  </si>
+  <si>
+    <t>Case Report: Aarskog-scott syndrome caused by FGD1 gene variation: A family study</t>
+  </si>
+  <si>
+    <t>elder brother</t>
+  </si>
+  <si>
+    <t>younger brother</t>
+  </si>
+  <si>
+    <t>P7Y11M</t>
+  </si>
+  <si>
+    <t>P4Y9M</t>
+  </si>
+  <si>
+    <t>P1Y</t>
+  </si>
+  <si>
+    <t>Highly arched eyebrow</t>
+  </si>
+  <si>
+    <t>HP:0002553</t>
+  </si>
+  <si>
+    <t>c.2015+1G&gt;A</t>
+  </si>
+  <si>
+    <t>PMID:14560308</t>
+  </si>
+  <si>
+    <t>Phenotypic and molecular characterisation of the Aarskog-Scott syndrome: a survey of the clinical variability in light of FGD1 mutation analysis in 46 patients</t>
+  </si>
+  <si>
+    <t>Patient 50</t>
+  </si>
+  <si>
+    <t>Patient 90</t>
+  </si>
+  <si>
+    <t>Patient 91</t>
+  </si>
+  <si>
+    <t>Patient 25</t>
+  </si>
+  <si>
+    <t>Patient 53</t>
+  </si>
+  <si>
+    <t>Patient 61</t>
+  </si>
+  <si>
+    <t>Patient 26</t>
+  </si>
+  <si>
+    <t>Patient 27</t>
+  </si>
+  <si>
+    <t>Patient 73</t>
+  </si>
+  <si>
+    <t>Patient 58</t>
+  </si>
+  <si>
+    <t>Patient 59</t>
+  </si>
+  <si>
+    <t>Patient 65</t>
+  </si>
+  <si>
+    <t>c.529dup</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(Leu177ProfsTer40);reported as 528insC</t>
+  </si>
+  <si>
+    <t>c.614G&gt;T</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(Ser205Ile)</t>
+  </si>
+  <si>
+    <t>c.982del</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(His328ThrfsTer32);reported as 982delC</t>
+  </si>
+  <si>
+    <t>c.944_975del</t>
+  </si>
+  <si>
+    <t>reported as 944–975del32</t>
+  </si>
+  <si>
+    <t>c.1139A&gt;C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	NP_004454.2:p.(Glu380Ala)</t>
+  </si>
+  <si>
+    <t>c.1328G&gt;A</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(Arg443His)</t>
+  </si>
+  <si>
+    <t>c.1318_1321del</t>
+  </si>
+  <si>
+    <t>reported as 1316–1319del AGCT</t>
+  </si>
+  <si>
+    <t>c.2530del</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(Val844TrpfsTer19);reported as 1316–1319del AGCT</t>
+  </si>
+  <si>
+    <t>P8M</t>
+  </si>
+  <si>
+    <t>P1Y3M</t>
+  </si>
+  <si>
+    <t>Childhood onset</t>
+  </si>
+  <si>
+    <t>P1Y4M</t>
+  </si>
+  <si>
+    <t>Congenital onset</t>
+  </si>
+  <si>
+    <t>Infantile onset</t>
+  </si>
+  <si>
+    <t>P29Y</t>
+  </si>
+  <si>
+    <t>P21Y</t>
+  </si>
+  <si>
+    <t>P4Y6M</t>
+  </si>
+  <si>
+    <t>Ventricular septal defect</t>
+  </si>
+  <si>
+    <t>HP:0001629</t>
+  </si>
+  <si>
+    <t>PMID:21739585</t>
+  </si>
+  <si>
+    <t>Fraternal twins with Aarskog-Scott syndrome due to maternal germline mosaicism</t>
+  </si>
+  <si>
+    <t>Twin I</t>
+  </si>
+  <si>
+    <t>Twin II</t>
+  </si>
+  <si>
+    <t>Intrauterine growth retardation</t>
+  </si>
+  <si>
+    <t>HP:0001511</t>
+  </si>
+  <si>
+    <t>Narrow forehead</t>
+  </si>
+  <si>
+    <t>HP:0000341</t>
+  </si>
+  <si>
+    <t>Corrected to NM_004463.3(FGD1):c.175C&gt;T (p.Gln59Ter)</t>
+  </si>
+  <si>
+    <t>c.175C&gt;T</t>
+  </si>
+  <si>
+    <t>P9M</t>
+  </si>
+  <si>
+    <t>PMID:34189097</t>
+  </si>
+  <si>
+    <t>A novel frameshift mutation in the FGD1 gene causing Aarskog-Scott syndrome patient with hypogonadism: a case report</t>
+  </si>
+  <si>
+    <t>Case presentation</t>
+  </si>
+  <si>
+    <t>P11Y5M</t>
+  </si>
+  <si>
+    <t>c.500del</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(Tyr167SerfsTer48)</t>
+  </si>
+  <si>
+    <t>PMID:28587322</t>
+  </si>
+  <si>
+    <t>Novel variant in the FGD1 gene causing Aarskog-Scott syndrome</t>
+  </si>
+  <si>
+    <t>Clinical presentation</t>
+  </si>
+  <si>
+    <t>P2Y2M</t>
+  </si>
+  <si>
+    <t>c.1270A&gt;G</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(Asn424Asp)</t>
+  </si>
+  <si>
+    <t>PMID:35388608</t>
+  </si>
+  <si>
+    <t>Novel truncating variants in FGD1 detected in two Danish families with Aarskog-Scott syndrome and myopathic features</t>
+  </si>
+  <si>
+    <t>Case 1 Proband family 1</t>
+  </si>
+  <si>
+    <t>P57Y</t>
+  </si>
+  <si>
+    <t>c.2266dup</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(Cys756LeufsTer19)</t>
+  </si>
+  <si>
+    <t>just male patients curated here</t>
+  </si>
+  <si>
+    <t>Case 3: Family 1</t>
+  </si>
+  <si>
+    <t>P38Y</t>
+  </si>
+  <si>
+    <t>Case 4 Family 2 proband</t>
+  </si>
+  <si>
+    <t>P47Y</t>
+  </si>
+  <si>
+    <t>c.527dup</t>
+  </si>
+  <si>
+    <t>NP_004454.2:p.(Leu177ThrfsTer40)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +1197,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -672,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -681,9 +1262,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -985,18 +1569,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV17"/>
+  <dimension ref="A1:CY50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="5" max="8" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.83203125" customWidth="1"/>
+    <col min="27" max="64" width="8.83203125" customWidth="1"/>
+    <col min="70" max="70" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:103" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,172 +1644,259 @@
         <v>47</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="BS1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BT1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="CN1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1279,172 +1955,259 @@
         <v>98</v>
       </c>
       <c r="T2" t="s">
+        <v>248</v>
+      </c>
+      <c r="U2" t="s">
+        <v>350</v>
+      </c>
+      <c r="V2" t="s">
         <v>69</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
+        <v>250</v>
+      </c>
+      <c r="X2" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z2" t="s">
         <v>100</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC2" t="s">
         <v>70</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AD2" t="s">
         <v>71</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AE2" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AF2" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AG2" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AH2" t="s">
         <v>75</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AI2" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AJ2" t="s">
         <v>165</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AK2" t="s">
         <v>163</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AL2" t="s">
         <v>77</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AM2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN2" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AO2" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AP2" t="s">
         <v>80</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AQ2" t="s">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AR2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AS2" t="s">
         <v>82</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AT2" t="s">
         <v>83</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AU2" t="s">
         <v>84</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AV2" t="s">
         <v>85</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AW2" t="s">
         <v>86</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AX2" t="s">
         <v>179</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AY2" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AZ2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BA2" t="s">
         <v>88</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BB2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BC2" t="s">
         <v>177</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BD2" t="s">
         <v>188</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BE2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>291</v>
+      </c>
+      <c r="BM2" t="s">
         <v>89</v>
       </c>
-      <c r="AU2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BN2" t="s">
         <v>169</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BO2" t="s">
         <v>93</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BP2" t="s">
+        <v>258</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR2" t="s">
         <v>94</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BS2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BT2" t="s">
         <v>95</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BU2" t="s">
         <v>115</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BV2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW2" t="s">
         <v>96</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BX2" t="s">
         <v>190</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BY2" t="s">
         <v>97</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BZ2" t="s">
         <v>125</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="CA2" t="s">
         <v>113</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="CB2" t="s">
         <v>101</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="CC2" t="s">
         <v>102</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="CD2" t="s">
         <v>119</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="CE2" t="s">
         <v>103</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="CF2" t="s">
         <v>104</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CG2" t="s">
         <v>105</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CH2" t="s">
         <v>175</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CI2" t="s">
         <v>106</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CJ2" t="s">
         <v>127</v>
       </c>
-      <c r="BS2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="CK2" t="s">
         <v>167</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CL2" t="s">
         <v>181</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CM2" t="s">
         <v>183</v>
       </c>
+      <c r="CN2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>218</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>220</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>222</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>342</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>224</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>232</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>348</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>240</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>269</v>
+      </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -1499,40 +2262,19 @@
       <c r="S3" t="s">
         <v>120</v>
       </c>
-      <c r="T3" t="s">
-        <v>111</v>
-      </c>
-      <c r="U3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL3" t="s">
+      <c r="V3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU3" t="s">
         <v>111</v>
       </c>
       <c r="BM3" t="s">
@@ -1541,8 +2283,29 @@
       <c r="BO3" t="s">
         <v>111</v>
       </c>
+      <c r="BT3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -1594,50 +2357,50 @@
       <c r="S4" t="s">
         <v>120</v>
       </c>
-      <c r="T4" t="s">
-        <v>111</v>
-      </c>
-      <c r="U4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>120</v>
+      <c r="V4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>111</v>
       </c>
       <c r="BM4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="BO4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -1692,47 +2455,47 @@
       <c r="S5" t="s">
         <v>111</v>
       </c>
-      <c r="T5" t="s">
-        <v>111</v>
-      </c>
-      <c r="U5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>120</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>120</v>
+      <c r="V5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>111</v>
       </c>
       <c r="BM5" t="s">
         <v>111</v>
       </c>
-      <c r="BN5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR5" t="s">
+      <c r="BT5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CJ5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -1787,86 +2550,86 @@
       <c r="S6" t="s">
         <v>120</v>
       </c>
-      <c r="T6" t="s">
-        <v>120</v>
-      </c>
-      <c r="U6" t="s">
-        <v>120</v>
-      </c>
-      <c r="X6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>111</v>
+      <c r="V6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>120</v>
       </c>
       <c r="AE6" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>111</v>
       </c>
       <c r="AJ6" t="s">
         <v>120</v>
       </c>
+      <c r="AK6" t="s">
+        <v>111</v>
+      </c>
       <c r="AL6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU6" t="s">
         <v>111</v>
       </c>
       <c r="AX6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="BC6" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>120</v>
+        <v>120</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>111</v>
       </c>
       <c r="BM6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BN6" t="s">
         <v>111</v>
       </c>
-      <c r="BO6" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>120</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>120</v>
-      </c>
       <c r="BT6" t="s">
         <v>111</v>
       </c>
-      <c r="BU6" t="s">
-        <v>120</v>
-      </c>
       <c r="BV6" t="s">
         <v>120</v>
       </c>
+      <c r="CD6" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -1921,86 +2684,86 @@
       <c r="S7" t="s">
         <v>111</v>
       </c>
-      <c r="T7" t="s">
-        <v>120</v>
-      </c>
-      <c r="U7" t="s">
-        <v>120</v>
-      </c>
-      <c r="X7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD7" t="s">
+      <c r="V7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z7" t="s">
         <v>120</v>
       </c>
       <c r="AE7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF7" t="s">
         <v>120</v>
       </c>
       <c r="AJ7" t="s">
-        <v>111</v>
+        <v>120</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>120</v>
       </c>
       <c r="AL7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU7" t="s">
         <v>111</v>
       </c>
       <c r="AX7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BC7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI7" t="s">
         <v>120</v>
       </c>
       <c r="BM7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BN7" t="s">
         <v>120</v>
       </c>
-      <c r="BO7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>111</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>120</v>
-      </c>
       <c r="BT7" t="s">
         <v>111</v>
       </c>
-      <c r="BU7" t="s">
-        <v>111</v>
-      </c>
       <c r="BV7" t="s">
         <v>120</v>
       </c>
+      <c r="CD7" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -2055,56 +2818,44 @@
       <c r="S8" t="s">
         <v>111</v>
       </c>
-      <c r="T8" t="s">
-        <v>111</v>
-      </c>
-      <c r="U8" t="s">
-        <v>120</v>
-      </c>
-      <c r="X8" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="V8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z8" t="s">
         <v>120</v>
       </c>
       <c r="AE8" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>111</v>
       </c>
       <c r="AJ8" t="s">
         <v>111</v>
       </c>
+      <c r="AK8" t="s">
+        <v>120</v>
+      </c>
       <c r="AL8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU8" t="s">
         <v>111</v>
       </c>
       <c r="AX8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ8" t="s">
         <v>111</v>
       </c>
       <c r="BC8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>111</v>
+        <v>120</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>120</v>
       </c>
       <c r="BM8" t="s">
         <v>111</v>
@@ -2112,29 +2863,41 @@
       <c r="BN8" t="s">
         <v>111</v>
       </c>
-      <c r="BO8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>120</v>
-      </c>
       <c r="BT8" t="s">
-        <v>120</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BV8" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>67</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -2189,86 +2952,86 @@
       <c r="S9" t="s">
         <v>120</v>
       </c>
-      <c r="T9" t="s">
-        <v>111</v>
-      </c>
-      <c r="U9" t="s">
-        <v>111</v>
-      </c>
-      <c r="X9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="V9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z9" t="s">
         <v>111</v>
       </c>
       <c r="AE9" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>111</v>
       </c>
       <c r="AJ9" t="s">
         <v>111</v>
       </c>
+      <c r="AK9" t="s">
+        <v>111</v>
+      </c>
       <c r="AL9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU9" t="s">
         <v>111</v>
       </c>
       <c r="AX9" t="s">
         <v>120</v>
       </c>
-      <c r="AY9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>111</v>
-      </c>
       <c r="BC9" t="s">
         <v>111</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BH9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI9" t="s">
         <v>120</v>
       </c>
       <c r="BM9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BN9" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>120</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS9" t="s">
         <v>111</v>
       </c>
       <c r="BT9" t="s">
-        <v>120</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BV9" t="s">
         <v>111</v>
       </c>
+      <c r="CD9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>67</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -2323,86 +3086,86 @@
       <c r="S10" t="s">
         <v>111</v>
       </c>
-      <c r="T10" t="s">
-        <v>111</v>
-      </c>
-      <c r="U10" t="s">
-        <v>120</v>
-      </c>
-      <c r="X10" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>111</v>
+      <c r="V10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>120</v>
       </c>
       <c r="AE10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF10" t="s">
         <v>120</v>
       </c>
       <c r="AJ10" t="s">
         <v>120</v>
       </c>
+      <c r="AK10" t="s">
+        <v>111</v>
+      </c>
       <c r="AL10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU10" t="s">
         <v>111</v>
       </c>
       <c r="AX10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ10" t="s">
         <v>111</v>
       </c>
       <c r="BC10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI10" t="s">
         <v>111</v>
       </c>
       <c r="BM10" t="s">
         <v>111</v>
       </c>
       <c r="BN10" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS10" t="s">
         <v>111</v>
       </c>
       <c r="BT10" t="s">
         <v>111</v>
       </c>
-      <c r="BU10" t="s">
-        <v>120</v>
-      </c>
       <c r="BV10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>67</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -2457,86 +3220,86 @@
       <c r="S11" t="s">
         <v>111</v>
       </c>
-      <c r="T11" t="s">
-        <v>111</v>
-      </c>
-      <c r="U11" t="s">
-        <v>111</v>
-      </c>
-      <c r="X11" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="V11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z11" t="s">
         <v>111</v>
       </c>
       <c r="AE11" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>111</v>
       </c>
       <c r="AJ11" t="s">
         <v>120</v>
       </c>
+      <c r="AK11" t="s">
+        <v>111</v>
+      </c>
       <c r="AL11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU11" t="s">
         <v>111</v>
       </c>
       <c r="AX11" t="s">
         <v>120</v>
       </c>
-      <c r="AY11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>111</v>
-      </c>
       <c r="BC11" t="s">
         <v>111</v>
       </c>
-      <c r="BL11" t="s">
-        <v>120</v>
+      <c r="BH11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>111</v>
       </c>
       <c r="BM11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BN11" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>111</v>
-      </c>
-      <c r="BS11" t="s">
         <v>111</v>
       </c>
       <c r="BT11" t="s">
-        <v>120</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BV11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -2591,86 +3354,86 @@
       <c r="S12" t="s">
         <v>120</v>
       </c>
-      <c r="T12" t="s">
-        <v>120</v>
-      </c>
-      <c r="U12" t="s">
-        <v>120</v>
-      </c>
-      <c r="X12" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>111</v>
+      <c r="V12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>120</v>
       </c>
       <c r="AE12" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>111</v>
       </c>
       <c r="AJ12" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>111</v>
       </c>
       <c r="AL12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU12" t="s">
         <v>111</v>
       </c>
       <c r="AX12" t="s">
         <v>120</v>
       </c>
-      <c r="AY12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>111</v>
-      </c>
       <c r="BC12" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI12" t="s">
         <v>120</v>
       </c>
       <c r="BM12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BN12" t="s">
         <v>111</v>
       </c>
-      <c r="BO12" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>120</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>120</v>
-      </c>
       <c r="BT12" t="s">
         <v>111</v>
       </c>
-      <c r="BU12" t="s">
-        <v>120</v>
-      </c>
       <c r="BV12" t="s">
         <v>120</v>
       </c>
+      <c r="CD12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>111</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>133</v>
       </c>
@@ -2725,86 +3488,86 @@
       <c r="S13" t="s">
         <v>111</v>
       </c>
-      <c r="T13" t="s">
-        <v>120</v>
-      </c>
-      <c r="U13" t="s">
-        <v>111</v>
-      </c>
-      <c r="X13" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="V13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z13" t="s">
         <v>111</v>
       </c>
       <c r="AE13" t="s">
         <v>111</v>
       </c>
+      <c r="AF13" t="s">
+        <v>111</v>
+      </c>
       <c r="AJ13" t="s">
         <v>111</v>
       </c>
+      <c r="AK13" t="s">
+        <v>111</v>
+      </c>
       <c r="AL13" t="s">
         <v>111</v>
       </c>
-      <c r="AO13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT13" t="s">
+      <c r="AS13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU13" t="s">
         <v>111</v>
       </c>
       <c r="AX13" t="s">
         <v>120</v>
       </c>
-      <c r="AY13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>111</v>
-      </c>
       <c r="BC13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI13" t="s">
         <v>120</v>
       </c>
       <c r="BM13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BN13" t="s">
         <v>111</v>
       </c>
-      <c r="BO13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>111</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>111</v>
-      </c>
       <c r="BT13" t="s">
-        <v>120</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BV13" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>111</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -2859,86 +3622,86 @@
       <c r="S14" t="s">
         <v>111</v>
       </c>
-      <c r="T14" t="s">
-        <v>120</v>
-      </c>
-      <c r="U14" t="s">
-        <v>120</v>
-      </c>
-      <c r="X14" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>111</v>
+      <c r="V14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>120</v>
       </c>
       <c r="AE14" t="s">
         <v>111</v>
       </c>
+      <c r="AF14" t="s">
+        <v>111</v>
+      </c>
       <c r="AJ14" t="s">
         <v>120</v>
       </c>
+      <c r="AK14" t="s">
+        <v>111</v>
+      </c>
       <c r="AL14" t="s">
         <v>111</v>
       </c>
-      <c r="AO14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT14" t="s">
+      <c r="AS14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU14" t="s">
         <v>111</v>
       </c>
       <c r="AX14" t="s">
         <v>120</v>
       </c>
-      <c r="AY14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>111</v>
-      </c>
       <c r="BC14" t="s">
         <v>111</v>
       </c>
-      <c r="BL14" t="s">
-        <v>120</v>
+      <c r="BH14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>111</v>
       </c>
       <c r="BM14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BN14" t="s">
         <v>111</v>
       </c>
-      <c r="BO14" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>111</v>
-      </c>
       <c r="BT14" t="s">
-        <v>120</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BV14" t="s">
         <v>111</v>
       </c>
+      <c r="CD14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>67</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -2993,86 +3756,86 @@
       <c r="S15" t="s">
         <v>111</v>
       </c>
-      <c r="T15" t="s">
-        <v>120</v>
-      </c>
-      <c r="U15" t="s">
-        <v>111</v>
-      </c>
-      <c r="X15" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>120</v>
+      <c r="V15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>111</v>
       </c>
       <c r="AE15" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>111</v>
       </c>
       <c r="AJ15" t="s">
         <v>120</v>
       </c>
+      <c r="AK15" t="s">
+        <v>120</v>
+      </c>
       <c r="AL15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU15" t="s">
         <v>111</v>
       </c>
       <c r="AX15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ15" t="s">
         <v>111</v>
       </c>
       <c r="BC15" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI15" t="s">
         <v>120</v>
       </c>
       <c r="BM15" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BN15" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>111</v>
-      </c>
-      <c r="BS15" t="s">
         <v>111</v>
       </c>
       <c r="BT15" t="s">
-        <v>120</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BV15" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>111</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>133</v>
       </c>
@@ -3127,86 +3890,86 @@
       <c r="S16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>111</v>
+      <c r="V16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="AE16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF16" s="3" t="s">
         <v>120</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="AL16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU16" s="3" t="s">
         <v>111</v>
       </c>
       <c r="AX16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ16" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BC16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BL16" s="3" t="s">
+      <c r="BH16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI16" s="3" t="s">
         <v>120</v>
       </c>
       <c r="BM16" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BN16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BO16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BS16" s="3" t="s">
         <v>120</v>
       </c>
       <c r="BT16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BU16" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="BV16" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="CD16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM16" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -3258,37 +4021,4051 @@
       <c r="R17" t="s">
         <v>111</v>
       </c>
-      <c r="T17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>111</v>
-      </c>
-      <c r="BV17" t="s">
+      <c r="V17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>111</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AE18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CJ18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CN18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>111</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AE19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>111</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AE20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CN20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>111</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AE21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CN21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CO21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>120</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>111</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AE22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CN22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ22" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>111</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AU23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>111</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CJ23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CU23" s="4"/>
+      <c r="CV23" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW23" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S24" t="s">
+        <v>111</v>
+      </c>
+      <c r="T24" t="s">
+        <v>111</v>
+      </c>
+      <c r="V24" t="s">
+        <v>111</v>
+      </c>
+      <c r="W24" t="s">
+        <v>111</v>
+      </c>
+      <c r="X24" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX24" t="s">
+        <v>111</v>
+      </c>
+      <c r="CY24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S25" t="s">
+        <v>111</v>
+      </c>
+      <c r="T25" t="s">
+        <v>111</v>
+      </c>
+      <c r="V25" t="s">
+        <v>111</v>
+      </c>
+      <c r="W25" t="s">
+        <v>111</v>
+      </c>
+      <c r="X25" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>111</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V26" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>111</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>111</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="M27" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S27" t="s">
+        <v>111</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ27" s="4"/>
+      <c r="BL27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK27" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="M28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S28" t="s">
+        <v>111</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ28" s="4"/>
+      <c r="BL28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK28" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ29" s="4"/>
+      <c r="BL29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK29" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" t="s">
+        <v>298</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="V30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO30" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP30" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" t="s">
+        <v>298</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO31" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP31" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="V32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AI32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS32" s="4"/>
+      <c r="AU32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="CE32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR32" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B33" t="s">
+        <v>303</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS33" s="4"/>
+      <c r="AU33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH33" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR33" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>302</v>
+      </c>
+      <c r="B34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS34" s="4"/>
+      <c r="AU34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR34" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S35" s="4"/>
+      <c r="V35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AI35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS35" s="4"/>
+      <c r="AU35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR35" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR36" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>302</v>
+      </c>
+      <c r="B37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="V37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AI37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS37" s="4"/>
+      <c r="AU37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR37" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AI38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS38" s="4"/>
+      <c r="AU38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR38" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" t="s">
+        <v>303</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS39" s="4"/>
+      <c r="AU39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR39" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" t="s">
+        <v>303</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS40" s="4"/>
+      <c r="AU40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP40" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR40" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S41" s="4"/>
+      <c r="V41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z41" s="4"/>
+      <c r="AI41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>337</v>
+      </c>
+      <c r="AY41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR41" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>302</v>
+      </c>
+      <c r="B42" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z42" s="4"/>
+      <c r="AI42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS42" s="4"/>
+      <c r="AU42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>337</v>
+      </c>
+      <c r="AY42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR42" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>302</v>
+      </c>
+      <c r="B43" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR43" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>343</v>
+      </c>
+      <c r="B44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" t="s">
+        <v>352</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R44" t="s">
+        <v>111</v>
+      </c>
+      <c r="T44" t="s">
+        <v>120</v>
+      </c>
+      <c r="U44" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y44" s="4"/>
+      <c r="AJ44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CU44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" t="s">
+        <v>352</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R45" t="s">
+        <v>111</v>
+      </c>
+      <c r="T45" t="s">
+        <v>120</v>
+      </c>
+      <c r="U45" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK45" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM45" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN45" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP45" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ45" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR45" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS45" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT45" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CU45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>354</v>
+      </c>
+      <c r="B46" t="s">
+        <v>355</v>
+      </c>
+      <c r="C46" t="s">
+        <v>356</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK46" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN46" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO46" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP46" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR46" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT46" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV46" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CN46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>360</v>
+      </c>
+      <c r="B47" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" t="s">
+        <v>362</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47" t="s">
+        <v>364</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V47" t="s">
+        <v>111</v>
+      </c>
+      <c r="W47" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK47" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP47" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT47" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV47" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD47" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE47" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG47" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:99" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B48" t="s">
+        <v>367</v>
+      </c>
+      <c r="C48" t="s">
+        <v>368</v>
+      </c>
+      <c r="D48" t="s">
+        <v>372</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48" t="s">
+        <v>370</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R48" t="s">
+        <v>111</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK48" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO48" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP48" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR48" t="s">
+        <v>111</v>
+      </c>
+      <c r="BW48" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX48" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY48" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" t="s">
+        <v>367</v>
+      </c>
+      <c r="C49" t="s">
+        <v>373</v>
+      </c>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" t="s">
+        <v>370</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V49" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK49" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BW49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD49" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE49" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG49" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" t="s">
+        <v>367</v>
+      </c>
+      <c r="C50" t="s">
+        <v>375</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" t="s">
+        <v>377</v>
+      </c>
+      <c r="K50" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" t="s">
+        <v>378</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD50" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE50" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG50" s="4" t="s">
         <v>111</v>
       </c>
     </row>
